--- a/API.xlsx
+++ b/API.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="84">
   <si>
     <t>API Name</t>
   </si>
@@ -594,6 +594,93 @@
   </si>
   <si>
     <t xml:space="preserve">http://192.168.1.123:8001/api/v1/coordinates/?format=xml </t>
+  </si>
+  <si>
+    <t>This api will search on basis of first name of user</t>
+  </si>
+  <si>
+    <t>Search by First Name</t>
+  </si>
+  <si>
+    <t>?format=xml&amp; first_name__contains=Nahyan</t>
+  </si>
+  <si>
+    <t>&lt;response&gt;
+   &lt;meta type="hash"&gt;
+      &lt;limit type="integer"&gt;20&lt;/limit&gt;
+      &lt;next type="null"/&gt;
+      &lt;offset type="integer"&gt;0&lt;/offset&gt;
+      &lt;previous type="null"/&gt;
+      &lt;total_count type="integer"&gt;2&lt;/total_count&gt;
+   &lt;/meta&gt;
+   &lt;objects type="list"&gt;
+      &lt;object&gt;
+         &lt;cnic&gt;1730185050232&lt;/cnic&gt;
+         &lt;coordinates type="list"/&gt;
+         &lt;id type="integer"&gt;2&lt;/id&gt;
+         &lt;license_type type="integer"&gt;1&lt;/license_type&gt;
+         &lt;mineral_type type="integer"&gt;2&lt;/mineral_type&gt;
+         &lt;request_by&gt;Nahyan Bin Khalid&lt;/request_by&gt;
+         &lt;request_date&gt;2014-04-29T10:04:28.699398&lt;/request_date&gt;
+         &lt;request_no&gt;265&lt;/request_no&gt;
+         &lt;request_status type="integer"&gt;0&lt;/request_status&gt;
+         &lt;request_status_date&gt;2014-04-29T10:04:28.697547&lt;/request_status_date&gt;                                                                                         
+         &lt;resource_uri&gt;/api/v1/requests/2/&lt;/resource_uri&gt;
+      &lt;/object&gt;
+      &lt;object&gt;
+         &lt;cnic&gt;1730185050232&lt;/cnic&gt;
+         &lt;coordinates type="list"/&gt;
+         &lt;id type="integer"&gt;4&lt;/id&gt;
+         &lt;license_type type="integer"&gt;2&lt;/license_type&gt;
+         &lt;mineral_type type="integer"&gt;1&lt;/mineral_type&gt;
+         &lt;request_by&gt;Nahyan Bin Khalid&lt;/request_by&gt;
+         &lt;request_date&gt;2014-04-29T10:13:33.248505&lt;/request_date&gt;
+         &lt;request_no&gt;24&lt;/request_no&gt;
+         &lt;request_status type="integer"&gt;0&lt;/request_status&gt;
+         &lt;request_status_date&gt;2014-04-29T10:13:33.246527&lt;/request_status_date&gt;
+         &lt;resource_uri&gt;/api/v1/requests/4/&lt;/resource_uri&gt;
+      &lt;/object&gt;
+   &lt;/objects&gt;
+&lt;/response&gt;</t>
+  </si>
+  <si>
+    <t>http://192.168.1.123:8001/api/v1/?format=xml&amp;first_name__contains=Nahyan</t>
+  </si>
+  <si>
+    <t>Search by Middle Name</t>
+  </si>
+  <si>
+    <t>Search by Last Name</t>
+  </si>
+  <si>
+    <t>?format=xml&amp; middle_name__contains=Bin</t>
+  </si>
+  <si>
+    <t>http://192.168.1.123:8001/api/v1/?format=xml&amp;middle_name__contains=Bin</t>
+  </si>
+  <si>
+    <t>?format=xml&amp; Last_name__contains=Bin</t>
+  </si>
+  <si>
+    <t>http://192.168.1.123:8001/api/v1/?format=xml&amp;last_name__contains=Bin</t>
+  </si>
+  <si>
+    <t>http://192.168.1.123:8001/api/v1/?format=xml&amp;cnic=1234567898765</t>
+  </si>
+  <si>
+    <t>?format=xml&amp;cnic=1234567898765</t>
+  </si>
+  <si>
+    <t>This api will search on basis of cnic of user</t>
+  </si>
+  <si>
+    <t>This api will search on basis of Last name of user</t>
+  </si>
+  <si>
+    <t>This api will search on basis of Middle name of user</t>
+  </si>
+  <si>
+    <t>Search by CNIC</t>
   </si>
 </sst>
 </file>
@@ -784,7 +871,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,28 +899,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -844,7 +924,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -874,35 +991,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1210,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+    <sheetView tabSelected="1" topLeftCell="A410" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1317,7 @@
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1229,2478 +1325,2478 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="54" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="32"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="14" t="s">
+      <c r="A64" s="20"/>
+      <c r="B64" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
     </row>
     <row r="65" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
     </row>
     <row r="79" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
     </row>
     <row r="80" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
     </row>
     <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
     </row>
     <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
     </row>
     <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
     </row>
     <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
     </row>
     <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:8" s="1" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="14" t="s">
+      <c r="A89" s="20"/>
+      <c r="B89" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
     </row>
     <row r="91" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
     </row>
     <row r="92" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
     </row>
     <row r="96" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
     </row>
     <row r="100" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="1:8" s="1" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
     </row>
     <row r="106" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
     </row>
     <row r="107" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="21"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="21"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="21"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="21"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="21"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="21"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="21"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="21"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="21"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="21"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="21"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="21"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="21"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="21"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="21"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="21"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="21"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="21"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="22"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="s">
+      <c r="A130" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="21"/>
+      <c r="A131" s="18"/>
       <c r="B131" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="21"/>
+      <c r="A132" s="18"/>
       <c r="B132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="21"/>
+      <c r="A133" s="18"/>
       <c r="B133" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="21"/>
+      <c r="A134" s="18"/>
       <c r="B134" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
     </row>
     <row r="135" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="21"/>
+      <c r="A135" s="18"/>
       <c r="B135" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
     </row>
     <row r="136" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
-      <c r="B137" s="36" t="s">
+      <c r="A137" s="30"/>
+      <c r="B137" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
-      <c r="B138" s="41"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="35"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
-      <c r="B139" s="41"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="35"/>
-      <c r="G139" s="35"/>
-      <c r="H139" s="35"/>
+      <c r="A139" s="30"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
-      <c r="B140" s="41"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="35"/>
+      <c r="A140" s="30"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
-      <c r="B141" s="41"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="35"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="35"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="37"/>
-      <c r="B142" s="41"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="35"/>
+      <c r="A142" s="30"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
-      <c r="B143" s="41"/>
-      <c r="C143" s="35"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="35"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
-      <c r="B144" s="41"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="35"/>
+      <c r="A144" s="30"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
-      <c r="B145" s="41"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="35"/>
-      <c r="G145" s="35"/>
-      <c r="H145" s="35"/>
+      <c r="A145" s="30"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="37"/>
-      <c r="B146" s="41"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="35"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="35"/>
+      <c r="A146" s="30"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="37"/>
-      <c r="B147" s="41"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="35"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="35"/>
+      <c r="A147" s="30"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="37"/>
-      <c r="B148" s="41"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="35"/>
+      <c r="A148" s="30"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="37"/>
-      <c r="B149" s="41"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="35"/>
+      <c r="A149" s="30"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="37"/>
-      <c r="B150" s="41"/>
-      <c r="C150" s="35"/>
-      <c r="D150" s="35"/>
-      <c r="E150" s="35"/>
-      <c r="F150" s="35"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="35"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="37"/>
-      <c r="B151" s="41"/>
-      <c r="C151" s="35"/>
-      <c r="D151" s="35"/>
-      <c r="E151" s="35"/>
-      <c r="F151" s="35"/>
-      <c r="G151" s="35"/>
-      <c r="H151" s="35"/>
+      <c r="A151" s="30"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="37"/>
-      <c r="B152" s="41"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="35"/>
-      <c r="F152" s="35"/>
-      <c r="G152" s="35"/>
-      <c r="H152" s="35"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="37"/>
-      <c r="B153" s="41"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="35"/>
-      <c r="F153" s="35"/>
-      <c r="G153" s="35"/>
-      <c r="H153" s="35"/>
+      <c r="A153" s="30"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="37"/>
-      <c r="B154" s="41"/>
-      <c r="C154" s="35"/>
-      <c r="D154" s="35"/>
-      <c r="E154" s="35"/>
-      <c r="F154" s="35"/>
-      <c r="G154" s="35"/>
-      <c r="H154" s="35"/>
+      <c r="A154" s="30"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="37"/>
-      <c r="B155" s="41"/>
-      <c r="C155" s="35"/>
-      <c r="D155" s="35"/>
-      <c r="E155" s="35"/>
-      <c r="F155" s="35"/>
-      <c r="G155" s="35"/>
-      <c r="H155" s="35"/>
+      <c r="A155" s="30"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="37"/>
-      <c r="B156" s="41"/>
-      <c r="C156" s="35"/>
-      <c r="D156" s="35"/>
-      <c r="E156" s="35"/>
-      <c r="F156" s="35"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="35"/>
+      <c r="A156" s="30"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
     </row>
     <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="37"/>
-      <c r="B157" s="41"/>
-      <c r="C157" s="35"/>
-      <c r="D157" s="35"/>
-      <c r="E157" s="35"/>
-      <c r="F157" s="35"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="35"/>
+      <c r="A157" s="30"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="37"/>
-      <c r="B158" s="41"/>
-      <c r="C158" s="35"/>
-      <c r="D158" s="35"/>
-      <c r="E158" s="35"/>
-      <c r="F158" s="35"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="35"/>
+      <c r="A158" s="30"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="37"/>
-      <c r="B159" s="41"/>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="35"/>
+      <c r="A159" s="30"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="37"/>
-      <c r="B160" s="41"/>
-      <c r="C160" s="35"/>
-      <c r="D160" s="35"/>
-      <c r="E160" s="35"/>
-      <c r="F160" s="35"/>
-      <c r="G160" s="35"/>
-      <c r="H160" s="35"/>
+      <c r="A160" s="30"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="37"/>
-      <c r="B161" s="41"/>
-      <c r="C161" s="35"/>
-      <c r="D161" s="35"/>
-      <c r="E161" s="35"/>
-      <c r="F161" s="35"/>
-      <c r="G161" s="35"/>
-      <c r="H161" s="35"/>
+      <c r="A161" s="30"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="37"/>
-      <c r="B162" s="41"/>
-      <c r="C162" s="35"/>
-      <c r="D162" s="35"/>
-      <c r="E162" s="35"/>
-      <c r="F162" s="35"/>
-      <c r="G162" s="35"/>
-      <c r="H162" s="35"/>
+      <c r="A162" s="30"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="37"/>
-      <c r="B163" s="41"/>
-      <c r="C163" s="35"/>
-      <c r="D163" s="35"/>
-      <c r="E163" s="35"/>
-      <c r="F163" s="35"/>
-      <c r="G163" s="35"/>
-      <c r="H163" s="35"/>
+      <c r="A163" s="30"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="37"/>
-      <c r="B164" s="41"/>
-      <c r="C164" s="35"/>
-      <c r="D164" s="35"/>
-      <c r="E164" s="35"/>
-      <c r="F164" s="35"/>
-      <c r="G164" s="35"/>
-      <c r="H164" s="35"/>
+      <c r="A164" s="30"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="37"/>
-      <c r="B165" s="41"/>
-      <c r="C165" s="35"/>
-      <c r="D165" s="35"/>
-      <c r="E165" s="35"/>
-      <c r="F165" s="35"/>
-      <c r="G165" s="35"/>
-      <c r="H165" s="35"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="42" t="s">
+      <c r="A166" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B166" s="41" t="s">
+      <c r="B166" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="35"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="35"/>
-      <c r="G166" s="35"/>
-      <c r="H166" s="35"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="42"/>
-      <c r="B167" s="41"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="35"/>
+      <c r="A167" s="31"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="42"/>
-      <c r="B168" s="41"/>
-      <c r="C168" s="35"/>
-      <c r="D168" s="35"/>
-      <c r="E168" s="35"/>
-      <c r="F168" s="35"/>
-      <c r="G168" s="35"/>
-      <c r="H168" s="35"/>
+      <c r="A168" s="31"/>
+      <c r="B168" s="29"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="42"/>
-      <c r="B169" s="41"/>
-      <c r="C169" s="35"/>
-      <c r="D169" s="35"/>
-      <c r="E169" s="35"/>
-      <c r="F169" s="35"/>
-      <c r="G169" s="35"/>
-      <c r="H169" s="35"/>
+      <c r="A169" s="31"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="42"/>
-      <c r="B170" s="41"/>
-      <c r="C170" s="35"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="35"/>
+      <c r="A170" s="31"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="42"/>
-      <c r="B171" s="41"/>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
-      <c r="E171" s="35"/>
-      <c r="F171" s="35"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="35"/>
+      <c r="A171" s="31"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="42"/>
-      <c r="B172" s="41"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
-      <c r="E172" s="35"/>
-      <c r="F172" s="35"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="35"/>
+      <c r="A172" s="31"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="42"/>
-      <c r="B173" s="41"/>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
-      <c r="E173" s="35"/>
-      <c r="F173" s="35"/>
-      <c r="G173" s="35"/>
-      <c r="H173" s="35"/>
+      <c r="A173" s="31"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="42"/>
-      <c r="B174" s="41"/>
-      <c r="C174" s="35"/>
-      <c r="D174" s="35"/>
-      <c r="E174" s="35"/>
-      <c r="F174" s="35"/>
-      <c r="G174" s="35"/>
-      <c r="H174" s="35"/>
+      <c r="A174" s="31"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="42"/>
-      <c r="B175" s="41"/>
-      <c r="C175" s="35"/>
-      <c r="D175" s="35"/>
-      <c r="E175" s="35"/>
-      <c r="F175" s="35"/>
-      <c r="G175" s="35"/>
-      <c r="H175" s="35"/>
+      <c r="A175" s="31"/>
+      <c r="B175" s="29"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="42"/>
-      <c r="B176" s="41"/>
-      <c r="C176" s="35"/>
-      <c r="D176" s="35"/>
-      <c r="E176" s="35"/>
-      <c r="F176" s="35"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="35"/>
+      <c r="A176" s="31"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="42"/>
-      <c r="B177" s="41"/>
-      <c r="C177" s="35"/>
-      <c r="D177" s="35"/>
-      <c r="E177" s="35"/>
-      <c r="F177" s="35"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="35"/>
+      <c r="A177" s="31"/>
+      <c r="B177" s="29"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="42"/>
-      <c r="B178" s="41"/>
-      <c r="C178" s="35"/>
-      <c r="D178" s="35"/>
-      <c r="E178" s="35"/>
-      <c r="F178" s="35"/>
-      <c r="G178" s="35"/>
-      <c r="H178" s="35"/>
+      <c r="A178" s="31"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="42"/>
-      <c r="B179" s="41"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="35"/>
-      <c r="E179" s="35"/>
-      <c r="F179" s="35"/>
-      <c r="G179" s="35"/>
-      <c r="H179" s="35"/>
+      <c r="A179" s="31"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="42"/>
-      <c r="B180" s="41"/>
-      <c r="C180" s="35"/>
-      <c r="D180" s="35"/>
-      <c r="E180" s="35"/>
-      <c r="F180" s="35"/>
-      <c r="G180" s="35"/>
-      <c r="H180" s="35"/>
+      <c r="A180" s="31"/>
+      <c r="B180" s="29"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="42"/>
-      <c r="B181" s="41"/>
-      <c r="C181" s="35"/>
-      <c r="D181" s="35"/>
-      <c r="E181" s="35"/>
-      <c r="F181" s="35"/>
-      <c r="G181" s="35"/>
-      <c r="H181" s="35"/>
+      <c r="A181" s="31"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="42"/>
-      <c r="B182" s="41"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="35"/>
-      <c r="G182" s="35"/>
-      <c r="H182" s="35"/>
+      <c r="A182" s="31"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="42"/>
-      <c r="B183" s="41"/>
-      <c r="C183" s="35"/>
-      <c r="D183" s="35"/>
-      <c r="E183" s="35"/>
-      <c r="F183" s="35"/>
-      <c r="G183" s="35"/>
-      <c r="H183" s="35"/>
+      <c r="A183" s="31"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="42"/>
-      <c r="B184" s="41"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
-      <c r="E184" s="35"/>
-      <c r="F184" s="35"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="35"/>
+      <c r="A184" s="31"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="42"/>
-      <c r="B185" s="41"/>
-      <c r="C185" s="35"/>
-      <c r="D185" s="35"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="35"/>
-      <c r="G185" s="35"/>
-      <c r="H185" s="35"/>
+      <c r="A185" s="31"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="42"/>
-      <c r="B186" s="41"/>
-      <c r="C186" s="35"/>
-      <c r="D186" s="35"/>
-      <c r="E186" s="35"/>
-      <c r="F186" s="35"/>
-      <c r="G186" s="35"/>
-      <c r="H186" s="35"/>
+      <c r="A186" s="31"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="42"/>
-      <c r="B187" s="41"/>
-      <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
-      <c r="E187" s="35"/>
-      <c r="F187" s="35"/>
-      <c r="G187" s="35"/>
-      <c r="H187" s="35"/>
+      <c r="A187" s="31"/>
+      <c r="B187" s="29"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="42"/>
-      <c r="B188" s="41"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="35"/>
-      <c r="E188" s="35"/>
-      <c r="F188" s="35"/>
-      <c r="G188" s="35"/>
-      <c r="H188" s="35"/>
+      <c r="A188" s="31"/>
+      <c r="B188" s="29"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="42"/>
-      <c r="B189" s="41"/>
-      <c r="C189" s="35"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
-      <c r="F189" s="35"/>
-      <c r="G189" s="35"/>
-      <c r="H189" s="35"/>
+      <c r="A189" s="31"/>
+      <c r="B189" s="29"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="42"/>
-      <c r="B190" s="41"/>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
-      <c r="E190" s="35"/>
-      <c r="F190" s="35"/>
-      <c r="G190" s="35"/>
-      <c r="H190" s="35"/>
+      <c r="A190" s="31"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="42"/>
-      <c r="B191" s="41"/>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="35"/>
-      <c r="G191" s="35"/>
-      <c r="H191" s="35"/>
+      <c r="A191" s="31"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="42"/>
-      <c r="B192" s="41"/>
-      <c r="C192" s="35"/>
-      <c r="D192" s="35"/>
-      <c r="E192" s="35"/>
-      <c r="F192" s="35"/>
-      <c r="G192" s="35"/>
-      <c r="H192" s="35"/>
+      <c r="A192" s="31"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="42"/>
-      <c r="B193" s="41"/>
-      <c r="C193" s="35"/>
-      <c r="D193" s="35"/>
-      <c r="E193" s="35"/>
-      <c r="F193" s="35"/>
-      <c r="G193" s="35"/>
-      <c r="H193" s="35"/>
+      <c r="A193" s="31"/>
+      <c r="B193" s="29"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="42"/>
-      <c r="B194" s="41"/>
-      <c r="C194" s="35"/>
-      <c r="D194" s="35"/>
-      <c r="E194" s="35"/>
-      <c r="F194" s="35"/>
-      <c r="G194" s="35"/>
-      <c r="H194" s="35"/>
+      <c r="A194" s="31"/>
+      <c r="B194" s="29"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="42"/>
-      <c r="B195" s="41"/>
-      <c r="C195" s="35"/>
-      <c r="D195" s="35"/>
-      <c r="E195" s="35"/>
-      <c r="F195" s="35"/>
-      <c r="G195" s="35"/>
-      <c r="H195" s="35"/>
+      <c r="A195" s="31"/>
+      <c r="B195" s="29"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="42"/>
-      <c r="B196" s="41"/>
-      <c r="C196" s="35"/>
-      <c r="D196" s="35"/>
-      <c r="E196" s="35"/>
-      <c r="F196" s="35"/>
-      <c r="G196" s="35"/>
-      <c r="H196" s="35"/>
+      <c r="A196" s="31"/>
+      <c r="B196" s="29"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="42"/>
-      <c r="B197" s="41"/>
-      <c r="C197" s="35"/>
-      <c r="D197" s="35"/>
-      <c r="E197" s="35"/>
-      <c r="F197" s="35"/>
-      <c r="G197" s="35"/>
-      <c r="H197" s="35"/>
+      <c r="A197" s="31"/>
+      <c r="B197" s="29"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B199" s="23" t="s">
+      <c r="B199" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C199" s="23"/>
-      <c r="D199" s="23"/>
-      <c r="E199" s="23"/>
-      <c r="F199" s="23"/>
-      <c r="G199" s="23"/>
-      <c r="H199" s="23"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="20" t="s">
+      <c r="A200" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C200" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="14"/>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="21"/>
+      <c r="A201" s="18"/>
       <c r="B201" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C201" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="21"/>
+      <c r="A202" s="18"/>
       <c r="B202" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="C202" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
-      <c r="H202" s="12"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15"/>
     </row>
     <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="21"/>
+      <c r="A203" s="18"/>
       <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D203" s="11"/>
-      <c r="E203" s="11"/>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
-      <c r="H203" s="11"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="21"/>
+      <c r="A204" s="18"/>
       <c r="B204" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="C204" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
-      <c r="H204" s="12"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="21"/>
+      <c r="A205" s="18"/>
       <c r="B205" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C205" s="13" t="s">
+      <c r="C205" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
-      <c r="G205" s="13"/>
-      <c r="H205" s="13"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
     </row>
     <row r="206" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="21"/>
+      <c r="A206" s="18"/>
       <c r="B206" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C206" s="13" t="s">
+      <c r="C206" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
-      <c r="G206" s="13"/>
-      <c r="H206" s="13"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
     </row>
     <row r="207" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="21"/>
-      <c r="B207" s="38" t="s">
+      <c r="A207" s="18"/>
+      <c r="B207" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="C207" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="15"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="22"/>
     </row>
     <row r="208" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="21"/>
-      <c r="B208" s="39"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="15"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="15"/>
+      <c r="A208" s="18"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
+      <c r="H208" s="22"/>
     </row>
     <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="21"/>
-      <c r="B209" s="39"/>
-      <c r="C209" s="15"/>
-      <c r="D209" s="15"/>
-      <c r="E209" s="15"/>
-      <c r="F209" s="15"/>
-      <c r="G209" s="15"/>
-      <c r="H209" s="15"/>
+      <c r="A209" s="18"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="22"/>
+      <c r="H209" s="22"/>
     </row>
     <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="21"/>
-      <c r="B210" s="39"/>
-      <c r="C210" s="15"/>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15"/>
-      <c r="F210" s="15"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
+      <c r="A210" s="18"/>
+      <c r="B210" s="24"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="22"/>
+      <c r="H210" s="22"/>
     </row>
     <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="21"/>
-      <c r="B211" s="39"/>
-      <c r="C211" s="15"/>
-      <c r="D211" s="15"/>
-      <c r="E211" s="15"/>
-      <c r="F211" s="15"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="15"/>
+      <c r="A211" s="18"/>
+      <c r="B211" s="24"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="22"/>
     </row>
     <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="21"/>
-      <c r="B212" s="39"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="15"/>
-      <c r="H212" s="15"/>
+      <c r="A212" s="18"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="22"/>
+      <c r="H212" s="22"/>
     </row>
     <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="21"/>
-      <c r="B213" s="39"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="15"/>
-      <c r="G213" s="15"/>
-      <c r="H213" s="15"/>
+      <c r="A213" s="18"/>
+      <c r="B213" s="24"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="22"/>
     </row>
     <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="21"/>
-      <c r="B214" s="39"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
-      <c r="F214" s="15"/>
-      <c r="G214" s="15"/>
-      <c r="H214" s="15"/>
+      <c r="A214" s="18"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="22"/>
     </row>
     <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="21"/>
-      <c r="B215" s="39"/>
-      <c r="C215" s="15"/>
-      <c r="D215" s="15"/>
-      <c r="E215" s="15"/>
-      <c r="F215" s="15"/>
-      <c r="G215" s="15"/>
-      <c r="H215" s="15"/>
+      <c r="A215" s="18"/>
+      <c r="B215" s="24"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="22"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="22"/>
     </row>
     <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="21"/>
-      <c r="B216" s="39"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
-      <c r="F216" s="15"/>
-      <c r="G216" s="15"/>
-      <c r="H216" s="15"/>
+      <c r="A216" s="18"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
     </row>
     <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="21"/>
-      <c r="B217" s="39"/>
-      <c r="C217" s="15"/>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15"/>
-      <c r="F217" s="15"/>
-      <c r="G217" s="15"/>
-      <c r="H217" s="15"/>
+      <c r="A217" s="18"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="22"/>
     </row>
     <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="21"/>
-      <c r="B218" s="39"/>
-      <c r="C218" s="15"/>
-      <c r="D218" s="15"/>
-      <c r="E218" s="15"/>
-      <c r="F218" s="15"/>
-      <c r="G218" s="15"/>
-      <c r="H218" s="15"/>
+      <c r="A218" s="18"/>
+      <c r="B218" s="24"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="22"/>
     </row>
     <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="21"/>
-      <c r="B219" s="39"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15"/>
-      <c r="F219" s="15"/>
-      <c r="G219" s="15"/>
-      <c r="H219" s="15"/>
+      <c r="A219" s="18"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
     </row>
     <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="21"/>
-      <c r="B220" s="39"/>
-      <c r="C220" s="15"/>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15"/>
-      <c r="F220" s="15"/>
-      <c r="G220" s="15"/>
-      <c r="H220" s="15"/>
+      <c r="A220" s="18"/>
+      <c r="B220" s="24"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="22"/>
     </row>
     <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="22"/>
-      <c r="B221" s="40"/>
-      <c r="C221" s="15"/>
-      <c r="D221" s="15"/>
-      <c r="E221" s="15"/>
-      <c r="F221" s="15"/>
-      <c r="G221" s="15"/>
-      <c r="H221" s="15"/>
+      <c r="A221" s="19"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
     </row>
     <row r="222" spans="1:9" ht="375.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
@@ -3709,12 +3805,12 @@
       <c r="B222" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C222" s="15"/>
-      <c r="D222" s="15"/>
-      <c r="E222" s="15"/>
-      <c r="F222" s="15"/>
-      <c r="G222" s="15"/>
-      <c r="H222" s="15"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="22"/>
+      <c r="H222" s="22"/>
     </row>
     <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
@@ -3799,271 +3895,271 @@
       <c r="A232" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B232" s="23" t="s">
+      <c r="B232" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C232" s="23"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="23"/>
-      <c r="F232" s="23"/>
-      <c r="G232" s="23"/>
-      <c r="H232" s="23"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="13"/>
+      <c r="H232" s="13"/>
     </row>
     <row r="233" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="10" t="s">
+      <c r="A233" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C233" s="11" t="s">
+      <c r="C233" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D233" s="11"/>
-      <c r="E233" s="11"/>
-      <c r="F233" s="11"/>
-      <c r="G233" s="11"/>
-      <c r="H233" s="11"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
+      <c r="H233" s="14"/>
     </row>
     <row r="234" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="10"/>
+      <c r="A234" s="20"/>
       <c r="B234" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="C234" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D234" s="12"/>
-      <c r="E234" s="12"/>
-      <c r="F234" s="12"/>
-      <c r="G234" s="12"/>
-      <c r="H234" s="12"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="15"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
+      <c r="A235" s="20"/>
       <c r="B235" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="C235" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="12"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+      <c r="H235" s="15"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="10"/>
+      <c r="A236" s="20"/>
       <c r="B236" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C236" s="16" t="s">
+      <c r="C236" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D236" s="16"/>
-      <c r="E236" s="16"/>
-      <c r="F236" s="16"/>
-      <c r="G236" s="16"/>
-      <c r="H236" s="16"/>
+      <c r="D236" s="21"/>
+      <c r="E236" s="21"/>
+      <c r="F236" s="21"/>
+      <c r="G236" s="21"/>
+      <c r="H236" s="21"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
+      <c r="A237" s="20"/>
       <c r="B237" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="C237" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D237" s="12"/>
-      <c r="E237" s="12"/>
-      <c r="F237" s="12"/>
-      <c r="G237" s="12"/>
-      <c r="H237" s="12"/>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="15"/>
+      <c r="H237" s="15"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="10"/>
+      <c r="A238" s="20"/>
       <c r="B238" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="C238" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D238" s="12"/>
-      <c r="E238" s="12"/>
-      <c r="F238" s="12"/>
-      <c r="G238" s="12"/>
-      <c r="H238" s="12"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="15"/>
+      <c r="H238" s="15"/>
     </row>
     <row r="239" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="10"/>
+      <c r="A239" s="20"/>
       <c r="B239" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C239" s="13" t="s">
+      <c r="C239" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D239" s="13"/>
-      <c r="E239" s="13"/>
-      <c r="F239" s="13"/>
-      <c r="G239" s="13"/>
-      <c r="H239" s="13"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
     </row>
     <row r="240" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
+      <c r="A240" s="20"/>
       <c r="B240" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C240" s="13" t="s">
+      <c r="C240" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D240" s="13"/>
-      <c r="E240" s="13"/>
-      <c r="F240" s="13"/>
-      <c r="G240" s="13"/>
-      <c r="H240" s="13"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="16"/>
+      <c r="F240" s="16"/>
+      <c r="G240" s="16"/>
+      <c r="H240" s="16"/>
     </row>
     <row r="241" spans="1:8" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="10"/>
+      <c r="A241" s="20"/>
       <c r="B241" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C241" s="13" t="s">
+      <c r="C241" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="13"/>
-      <c r="G241" s="13"/>
-      <c r="H241" s="13"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="16"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="16"/>
+      <c r="H241" s="16"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B246" s="23" t="s">
+      <c r="B246" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C246" s="23"/>
-      <c r="D246" s="23"/>
-      <c r="E246" s="23"/>
-      <c r="F246" s="23"/>
-      <c r="G246" s="23"/>
-      <c r="H246" s="23"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="13"/>
+      <c r="G246" s="13"/>
+      <c r="H246" s="13"/>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="20" t="s">
+      <c r="A247" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C247" s="11" t="s">
+      <c r="C247" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D247" s="11"/>
-      <c r="E247" s="11"/>
-      <c r="F247" s="11"/>
-      <c r="G247" s="11"/>
-      <c r="H247" s="11"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="14"/>
+      <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="21"/>
+      <c r="A248" s="18"/>
       <c r="B248" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C248" s="12" t="s">
+      <c r="C248" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
-      <c r="F248" s="12"/>
-      <c r="G248" s="12"/>
-      <c r="H248" s="12"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="15"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="15"/>
+      <c r="H248" s="15"/>
     </row>
     <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="21"/>
+      <c r="A249" s="18"/>
       <c r="B249" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C249" s="12" t="s">
+      <c r="C249" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="12"/>
-      <c r="G249" s="12"/>
-      <c r="H249" s="12"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="15"/>
     </row>
     <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="21"/>
+      <c r="A250" s="18"/>
       <c r="B250" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C250" s="11" t="s">
+      <c r="C250" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
-      <c r="F250" s="11"/>
-      <c r="G250" s="11"/>
-      <c r="H250" s="11"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="21"/>
+      <c r="A251" s="18"/>
       <c r="B251" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C251" s="12" t="s">
+      <c r="C251" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
-      <c r="F251" s="12"/>
-      <c r="G251" s="12"/>
-      <c r="H251" s="12"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="15"/>
+      <c r="H251" s="15"/>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="21"/>
+      <c r="A252" s="18"/>
       <c r="B252" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C252" s="12" t="s">
+      <c r="C252" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
-      <c r="F252" s="12"/>
-      <c r="G252" s="12"/>
-      <c r="H252" s="12"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="15"/>
+      <c r="H252" s="15"/>
     </row>
     <row r="253" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="21"/>
+      <c r="A253" s="18"/>
       <c r="B253" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C253" s="13" t="s">
+      <c r="C253" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
-      <c r="F253" s="13"/>
-      <c r="G253" s="13"/>
-      <c r="H253" s="13"/>
+      <c r="D253" s="16"/>
+      <c r="E253" s="16"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="16"/>
+      <c r="H253" s="16"/>
     </row>
     <row r="254" spans="1:8" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="22"/>
+      <c r="A254" s="19"/>
       <c r="B254" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C254" s="13" t="s">
+      <c r="C254" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
-      <c r="F254" s="13"/>
-      <c r="G254" s="13"/>
-      <c r="H254" s="13"/>
+      <c r="D254" s="16"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
+      <c r="G254" s="16"/>
+      <c r="H254" s="16"/>
     </row>
     <row r="255" spans="1:8" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
@@ -4072,71 +4168,1203 @@
       <c r="B255" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="C255" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="13"/>
-      <c r="G255" s="13"/>
-      <c r="H255" s="13"/>
+      <c r="D255" s="16"/>
+      <c r="E255" s="16"/>
+      <c r="F255" s="16"/>
+      <c r="G255" s="16"/>
+      <c r="H255" s="16"/>
+    </row>
+    <row r="263" ht="54.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
+      <c r="G288" s="13"/>
+      <c r="H288" s="13"/>
+    </row>
+    <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D289" s="21"/>
+      <c r="E289" s="21"/>
+      <c r="F289" s="21"/>
+      <c r="G289" s="21"/>
+      <c r="H289" s="21"/>
+    </row>
+    <row r="290" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="20"/>
+      <c r="B290" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D290" s="15"/>
+      <c r="E290" s="15"/>
+      <c r="F290" s="15"/>
+      <c r="G290" s="15"/>
+      <c r="H290" s="15"/>
+    </row>
+    <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="20"/>
+      <c r="B291" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D291" s="15"/>
+      <c r="E291" s="15"/>
+      <c r="F291" s="15"/>
+      <c r="G291" s="15"/>
+      <c r="H291" s="15"/>
+    </row>
+    <row r="292" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="20"/>
+      <c r="B292" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C292" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D292" s="21"/>
+      <c r="E292" s="21"/>
+      <c r="F292" s="21"/>
+      <c r="G292" s="21"/>
+      <c r="H292" s="21"/>
+    </row>
+    <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="20"/>
+      <c r="B293" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D293" s="15"/>
+      <c r="E293" s="15"/>
+      <c r="F293" s="15"/>
+      <c r="G293" s="15"/>
+      <c r="H293" s="15"/>
+    </row>
+    <row r="294" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="20"/>
+      <c r="B294" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D294" s="16"/>
+      <c r="E294" s="16"/>
+      <c r="F294" s="16"/>
+      <c r="G294" s="16"/>
+      <c r="H294" s="16"/>
+    </row>
+    <row r="295" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="20"/>
+      <c r="B295" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D295" s="16"/>
+      <c r="E295" s="16"/>
+      <c r="F295" s="16"/>
+      <c r="G295" s="16"/>
+      <c r="H295" s="16"/>
+    </row>
+    <row r="296" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="20"/>
+      <c r="B296" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D296" s="22"/>
+      <c r="E296" s="22"/>
+      <c r="F296" s="22"/>
+      <c r="G296" s="22"/>
+      <c r="H296" s="22"/>
+    </row>
+    <row r="297" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="20"/>
+      <c r="B297" s="33"/>
+      <c r="C297" s="22"/>
+      <c r="D297" s="22"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="22"/>
+      <c r="G297" s="22"/>
+      <c r="H297" s="22"/>
+    </row>
+    <row r="298" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="20"/>
+      <c r="B298" s="33"/>
+      <c r="C298" s="22"/>
+      <c r="D298" s="22"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="22"/>
+      <c r="G298" s="22"/>
+      <c r="H298" s="22"/>
+    </row>
+    <row r="299" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="20"/>
+      <c r="B299" s="33"/>
+      <c r="C299" s="22"/>
+      <c r="D299" s="22"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="22"/>
+      <c r="G299" s="22"/>
+      <c r="H299" s="22"/>
+    </row>
+    <row r="300" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="20"/>
+      <c r="B300" s="33"/>
+      <c r="C300" s="22"/>
+      <c r="D300" s="22"/>
+      <c r="E300" s="22"/>
+      <c r="F300" s="22"/>
+      <c r="G300" s="22"/>
+      <c r="H300" s="22"/>
+    </row>
+    <row r="301" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="20"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="22"/>
+      <c r="D301" s="22"/>
+      <c r="E301" s="22"/>
+      <c r="F301" s="22"/>
+      <c r="G301" s="22"/>
+      <c r="H301" s="22"/>
+    </row>
+    <row r="302" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="20"/>
+      <c r="B302" s="33"/>
+      <c r="C302" s="22"/>
+      <c r="D302" s="22"/>
+      <c r="E302" s="22"/>
+      <c r="F302" s="22"/>
+      <c r="G302" s="22"/>
+      <c r="H302" s="22"/>
+    </row>
+    <row r="303" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="20"/>
+      <c r="B303" s="33"/>
+      <c r="C303" s="22"/>
+      <c r="D303" s="22"/>
+      <c r="E303" s="22"/>
+      <c r="F303" s="22"/>
+      <c r="G303" s="22"/>
+      <c r="H303" s="22"/>
+    </row>
+    <row r="304" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="20"/>
+      <c r="B304" s="33"/>
+      <c r="C304" s="22"/>
+      <c r="D304" s="22"/>
+      <c r="E304" s="22"/>
+      <c r="F304" s="22"/>
+      <c r="G304" s="22"/>
+      <c r="H304" s="22"/>
+    </row>
+    <row r="305" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="20"/>
+      <c r="B305" s="33"/>
+      <c r="C305" s="22"/>
+      <c r="D305" s="22"/>
+      <c r="E305" s="22"/>
+      <c r="F305" s="22"/>
+      <c r="G305" s="22"/>
+      <c r="H305" s="22"/>
+    </row>
+    <row r="306" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="20"/>
+      <c r="B306" s="33"/>
+      <c r="C306" s="22"/>
+      <c r="D306" s="22"/>
+      <c r="E306" s="22"/>
+      <c r="F306" s="22"/>
+      <c r="G306" s="22"/>
+      <c r="H306" s="22"/>
+    </row>
+    <row r="307" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="20"/>
+      <c r="B307" s="33"/>
+      <c r="C307" s="22"/>
+      <c r="D307" s="22"/>
+      <c r="E307" s="22"/>
+      <c r="F307" s="22"/>
+      <c r="G307" s="22"/>
+      <c r="H307" s="22"/>
+    </row>
+    <row r="308" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="20"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="22"/>
+      <c r="D308" s="22"/>
+      <c r="E308" s="22"/>
+      <c r="F308" s="22"/>
+      <c r="G308" s="22"/>
+      <c r="H308" s="22"/>
+    </row>
+    <row r="309" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="20"/>
+      <c r="B309" s="33"/>
+      <c r="C309" s="22"/>
+      <c r="D309" s="22"/>
+      <c r="E309" s="22"/>
+      <c r="F309" s="22"/>
+      <c r="G309" s="22"/>
+      <c r="H309" s="22"/>
+    </row>
+    <row r="310" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="20"/>
+      <c r="B310" s="33"/>
+      <c r="C310" s="22"/>
+      <c r="D310" s="22"/>
+      <c r="E310" s="22"/>
+      <c r="F310" s="22"/>
+      <c r="G310" s="22"/>
+      <c r="H310" s="22"/>
+    </row>
+    <row r="311" spans="1:8" ht="291" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" s="22"/>
+      <c r="D311" s="22"/>
+      <c r="E311" s="22"/>
+      <c r="F311" s="22"/>
+      <c r="G311" s="22"/>
+      <c r="H311" s="22"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="13"/>
+      <c r="D326" s="13"/>
+      <c r="E326" s="13"/>
+      <c r="F326" s="13"/>
+      <c r="G326" s="13"/>
+      <c r="H326" s="13"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B327" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D327" s="21"/>
+      <c r="E327" s="21"/>
+      <c r="F327" s="21"/>
+      <c r="G327" s="21"/>
+      <c r="H327" s="21"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="20"/>
+      <c r="B328" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C328" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D328" s="15"/>
+      <c r="E328" s="15"/>
+      <c r="F328" s="15"/>
+      <c r="G328" s="15"/>
+      <c r="H328" s="15"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="20"/>
+      <c r="B329" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D329" s="15"/>
+      <c r="E329" s="15"/>
+      <c r="F329" s="15"/>
+      <c r="G329" s="15"/>
+      <c r="H329" s="15"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" s="20"/>
+      <c r="B330" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C330" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D330" s="21"/>
+      <c r="E330" s="21"/>
+      <c r="F330" s="21"/>
+      <c r="G330" s="21"/>
+      <c r="H330" s="21"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" s="20"/>
+      <c r="B331" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D331" s="15"/>
+      <c r="E331" s="15"/>
+      <c r="F331" s="15"/>
+      <c r="G331" s="15"/>
+      <c r="H331" s="15"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" s="20"/>
+      <c r="B332" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D332" s="16"/>
+      <c r="E332" s="16"/>
+      <c r="F332" s="16"/>
+      <c r="G332" s="16"/>
+      <c r="H332" s="16"/>
+    </row>
+    <row r="333" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="20"/>
+      <c r="B333" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D333" s="16"/>
+      <c r="E333" s="16"/>
+      <c r="F333" s="16"/>
+      <c r="G333" s="16"/>
+      <c r="H333" s="16"/>
+    </row>
+    <row r="334" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A334" s="20"/>
+      <c r="B334" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D334" s="22"/>
+      <c r="E334" s="22"/>
+      <c r="F334" s="22"/>
+      <c r="G334" s="22"/>
+      <c r="H334" s="22"/>
+    </row>
+    <row r="335" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A335" s="20"/>
+      <c r="B335" s="33"/>
+      <c r="C335" s="22"/>
+      <c r="D335" s="22"/>
+      <c r="E335" s="22"/>
+      <c r="F335" s="22"/>
+      <c r="G335" s="22"/>
+      <c r="H335" s="22"/>
+    </row>
+    <row r="336" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A336" s="20"/>
+      <c r="B336" s="33"/>
+      <c r="C336" s="22"/>
+      <c r="D336" s="22"/>
+      <c r="E336" s="22"/>
+      <c r="F336" s="22"/>
+      <c r="G336" s="22"/>
+      <c r="H336" s="22"/>
+    </row>
+    <row r="337" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A337" s="20"/>
+      <c r="B337" s="33"/>
+      <c r="C337" s="22"/>
+      <c r="D337" s="22"/>
+      <c r="E337" s="22"/>
+      <c r="F337" s="22"/>
+      <c r="G337" s="22"/>
+      <c r="H337" s="22"/>
+    </row>
+    <row r="338" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A338" s="20"/>
+      <c r="B338" s="33"/>
+      <c r="C338" s="22"/>
+      <c r="D338" s="22"/>
+      <c r="E338" s="22"/>
+      <c r="F338" s="22"/>
+      <c r="G338" s="22"/>
+      <c r="H338" s="22"/>
+    </row>
+    <row r="339" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A339" s="20"/>
+      <c r="B339" s="33"/>
+      <c r="C339" s="22"/>
+      <c r="D339" s="22"/>
+      <c r="E339" s="22"/>
+      <c r="F339" s="22"/>
+      <c r="G339" s="22"/>
+      <c r="H339" s="22"/>
+    </row>
+    <row r="340" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A340" s="20"/>
+      <c r="B340" s="33"/>
+      <c r="C340" s="22"/>
+      <c r="D340" s="22"/>
+      <c r="E340" s="22"/>
+      <c r="F340" s="22"/>
+      <c r="G340" s="22"/>
+      <c r="H340" s="22"/>
+    </row>
+    <row r="341" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A341" s="20"/>
+      <c r="B341" s="33"/>
+      <c r="C341" s="22"/>
+      <c r="D341" s="22"/>
+      <c r="E341" s="22"/>
+      <c r="F341" s="22"/>
+      <c r="G341" s="22"/>
+      <c r="H341" s="22"/>
+    </row>
+    <row r="342" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A342" s="20"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="22"/>
+      <c r="D342" s="22"/>
+      <c r="E342" s="22"/>
+      <c r="F342" s="22"/>
+      <c r="G342" s="22"/>
+      <c r="H342" s="22"/>
+    </row>
+    <row r="343" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A343" s="20"/>
+      <c r="B343" s="33"/>
+      <c r="C343" s="22"/>
+      <c r="D343" s="22"/>
+      <c r="E343" s="22"/>
+      <c r="F343" s="22"/>
+      <c r="G343" s="22"/>
+      <c r="H343" s="22"/>
+    </row>
+    <row r="344" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A344" s="20"/>
+      <c r="B344" s="33"/>
+      <c r="C344" s="22"/>
+      <c r="D344" s="22"/>
+      <c r="E344" s="22"/>
+      <c r="F344" s="22"/>
+      <c r="G344" s="22"/>
+      <c r="H344" s="22"/>
+    </row>
+    <row r="345" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A345" s="20"/>
+      <c r="B345" s="33"/>
+      <c r="C345" s="22"/>
+      <c r="D345" s="22"/>
+      <c r="E345" s="22"/>
+      <c r="F345" s="22"/>
+      <c r="G345" s="22"/>
+      <c r="H345" s="22"/>
+    </row>
+    <row r="346" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A346" s="20"/>
+      <c r="B346" s="33"/>
+      <c r="C346" s="22"/>
+      <c r="D346" s="22"/>
+      <c r="E346" s="22"/>
+      <c r="F346" s="22"/>
+      <c r="G346" s="22"/>
+      <c r="H346" s="22"/>
+    </row>
+    <row r="347" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A347" s="20"/>
+      <c r="B347" s="33"/>
+      <c r="C347" s="22"/>
+      <c r="D347" s="22"/>
+      <c r="E347" s="22"/>
+      <c r="F347" s="22"/>
+      <c r="G347" s="22"/>
+      <c r="H347" s="22"/>
+    </row>
+    <row r="348" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A348" s="20"/>
+      <c r="B348" s="33"/>
+      <c r="C348" s="22"/>
+      <c r="D348" s="22"/>
+      <c r="E348" s="22"/>
+      <c r="F348" s="22"/>
+      <c r="G348" s="22"/>
+      <c r="H348" s="22"/>
+    </row>
+    <row r="349" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="22"/>
+      <c r="D349" s="22"/>
+      <c r="E349" s="22"/>
+      <c r="F349" s="22"/>
+      <c r="G349" s="22"/>
+      <c r="H349" s="22"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B357" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="13"/>
+      <c r="F357" s="13"/>
+      <c r="G357" s="13"/>
+      <c r="H357" s="13"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D358" s="21"/>
+      <c r="E358" s="21"/>
+      <c r="F358" s="21"/>
+      <c r="G358" s="21"/>
+      <c r="H358" s="21"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" s="20"/>
+      <c r="B359" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C359" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D359" s="15"/>
+      <c r="E359" s="15"/>
+      <c r="F359" s="15"/>
+      <c r="G359" s="15"/>
+      <c r="H359" s="15"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" s="20"/>
+      <c r="B360" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C360" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D360" s="15"/>
+      <c r="E360" s="15"/>
+      <c r="F360" s="15"/>
+      <c r="G360" s="15"/>
+      <c r="H360" s="15"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" s="20"/>
+      <c r="B361" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C361" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D361" s="14"/>
+      <c r="E361" s="14"/>
+      <c r="F361" s="14"/>
+      <c r="G361" s="14"/>
+      <c r="H361" s="14"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" s="20"/>
+      <c r="B362" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C362" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D362" s="15"/>
+      <c r="E362" s="15"/>
+      <c r="F362" s="15"/>
+      <c r="G362" s="15"/>
+      <c r="H362" s="15"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" s="20"/>
+      <c r="B363" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D363" s="16"/>
+      <c r="E363" s="16"/>
+      <c r="F363" s="16"/>
+      <c r="G363" s="16"/>
+      <c r="H363" s="16"/>
+    </row>
+    <row r="364" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="20"/>
+      <c r="B364" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D364" s="16"/>
+      <c r="E364" s="16"/>
+      <c r="F364" s="16"/>
+      <c r="G364" s="16"/>
+      <c r="H364" s="16"/>
+    </row>
+    <row r="365" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A365" s="20"/>
+      <c r="B365" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D365" s="22"/>
+      <c r="E365" s="22"/>
+      <c r="F365" s="22"/>
+      <c r="G365" s="22"/>
+      <c r="H365" s="22"/>
+    </row>
+    <row r="366" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A366" s="20"/>
+      <c r="B366" s="33"/>
+      <c r="C366" s="22"/>
+      <c r="D366" s="22"/>
+      <c r="E366" s="22"/>
+      <c r="F366" s="22"/>
+      <c r="G366" s="22"/>
+      <c r="H366" s="22"/>
+    </row>
+    <row r="367" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A367" s="20"/>
+      <c r="B367" s="33"/>
+      <c r="C367" s="22"/>
+      <c r="D367" s="22"/>
+      <c r="E367" s="22"/>
+      <c r="F367" s="22"/>
+      <c r="G367" s="22"/>
+      <c r="H367" s="22"/>
+    </row>
+    <row r="368" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A368" s="20"/>
+      <c r="B368" s="33"/>
+      <c r="C368" s="22"/>
+      <c r="D368" s="22"/>
+      <c r="E368" s="22"/>
+      <c r="F368" s="22"/>
+      <c r="G368" s="22"/>
+      <c r="H368" s="22"/>
+    </row>
+    <row r="369" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A369" s="20"/>
+      <c r="B369" s="33"/>
+      <c r="C369" s="22"/>
+      <c r="D369" s="22"/>
+      <c r="E369" s="22"/>
+      <c r="F369" s="22"/>
+      <c r="G369" s="22"/>
+      <c r="H369" s="22"/>
+    </row>
+    <row r="370" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A370" s="20"/>
+      <c r="B370" s="33"/>
+      <c r="C370" s="22"/>
+      <c r="D370" s="22"/>
+      <c r="E370" s="22"/>
+      <c r="F370" s="22"/>
+      <c r="G370" s="22"/>
+      <c r="H370" s="22"/>
+    </row>
+    <row r="371" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A371" s="20"/>
+      <c r="B371" s="33"/>
+      <c r="C371" s="22"/>
+      <c r="D371" s="22"/>
+      <c r="E371" s="22"/>
+      <c r="F371" s="22"/>
+      <c r="G371" s="22"/>
+      <c r="H371" s="22"/>
+    </row>
+    <row r="372" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A372" s="20"/>
+      <c r="B372" s="33"/>
+      <c r="C372" s="22"/>
+      <c r="D372" s="22"/>
+      <c r="E372" s="22"/>
+      <c r="F372" s="22"/>
+      <c r="G372" s="22"/>
+      <c r="H372" s="22"/>
+    </row>
+    <row r="373" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A373" s="20"/>
+      <c r="B373" s="33"/>
+      <c r="C373" s="22"/>
+      <c r="D373" s="22"/>
+      <c r="E373" s="22"/>
+      <c r="F373" s="22"/>
+      <c r="G373" s="22"/>
+      <c r="H373" s="22"/>
+    </row>
+    <row r="374" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A374" s="20"/>
+      <c r="B374" s="33"/>
+      <c r="C374" s="22"/>
+      <c r="D374" s="22"/>
+      <c r="E374" s="22"/>
+      <c r="F374" s="22"/>
+      <c r="G374" s="22"/>
+      <c r="H374" s="22"/>
+    </row>
+    <row r="375" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A375" s="20"/>
+      <c r="B375" s="33"/>
+      <c r="C375" s="22"/>
+      <c r="D375" s="22"/>
+      <c r="E375" s="22"/>
+      <c r="F375" s="22"/>
+      <c r="G375" s="22"/>
+      <c r="H375" s="22"/>
+    </row>
+    <row r="376" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A376" s="20"/>
+      <c r="B376" s="33"/>
+      <c r="C376" s="22"/>
+      <c r="D376" s="22"/>
+      <c r="E376" s="22"/>
+      <c r="F376" s="22"/>
+      <c r="G376" s="22"/>
+      <c r="H376" s="22"/>
+    </row>
+    <row r="377" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A377" s="20"/>
+      <c r="B377" s="33"/>
+      <c r="C377" s="22"/>
+      <c r="D377" s="22"/>
+      <c r="E377" s="22"/>
+      <c r="F377" s="22"/>
+      <c r="G377" s="22"/>
+      <c r="H377" s="22"/>
+    </row>
+    <row r="378" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A378" s="20"/>
+      <c r="B378" s="33"/>
+      <c r="C378" s="22"/>
+      <c r="D378" s="22"/>
+      <c r="E378" s="22"/>
+      <c r="F378" s="22"/>
+      <c r="G378" s="22"/>
+      <c r="H378" s="22"/>
+    </row>
+    <row r="379" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A379" s="20"/>
+      <c r="B379" s="33"/>
+      <c r="C379" s="22"/>
+      <c r="D379" s="22"/>
+      <c r="E379" s="22"/>
+      <c r="F379" s="22"/>
+      <c r="G379" s="22"/>
+      <c r="H379" s="22"/>
+    </row>
+    <row r="380" spans="1:8" ht="397.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" s="22"/>
+      <c r="D380" s="22"/>
+      <c r="E380" s="22"/>
+      <c r="F380" s="22"/>
+      <c r="G380" s="22"/>
+      <c r="H380" s="22"/>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B388" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C388" s="13"/>
+      <c r="D388" s="13"/>
+      <c r="E388" s="13"/>
+      <c r="F388" s="13"/>
+      <c r="G388" s="13"/>
+      <c r="H388" s="13"/>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B389" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C389" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D389" s="21"/>
+      <c r="E389" s="21"/>
+      <c r="F389" s="21"/>
+      <c r="G389" s="21"/>
+      <c r="H389" s="21"/>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" s="20"/>
+      <c r="B390" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C390" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D390" s="15"/>
+      <c r="E390" s="15"/>
+      <c r="F390" s="15"/>
+      <c r="G390" s="15"/>
+      <c r="H390" s="15"/>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" s="20"/>
+      <c r="B391" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C391" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D391" s="15"/>
+      <c r="E391" s="15"/>
+      <c r="F391" s="15"/>
+      <c r="G391" s="15"/>
+      <c r="H391" s="15"/>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" s="20"/>
+      <c r="B392" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C392" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D392" s="14"/>
+      <c r="E392" s="14"/>
+      <c r="F392" s="14"/>
+      <c r="G392" s="14"/>
+      <c r="H392" s="14"/>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" s="20"/>
+      <c r="B393" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C393" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D393" s="15"/>
+      <c r="E393" s="15"/>
+      <c r="F393" s="15"/>
+      <c r="G393" s="15"/>
+      <c r="H393" s="15"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394" s="20"/>
+      <c r="B394" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D394" s="16"/>
+      <c r="E394" s="16"/>
+      <c r="F394" s="16"/>
+      <c r="G394" s="16"/>
+      <c r="H394" s="16"/>
+    </row>
+    <row r="395" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="20"/>
+      <c r="B395" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D395" s="16"/>
+      <c r="E395" s="16"/>
+      <c r="F395" s="16"/>
+      <c r="G395" s="16"/>
+      <c r="H395" s="16"/>
+    </row>
+    <row r="396" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A396" s="20"/>
+      <c r="B396" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D396" s="22"/>
+      <c r="E396" s="22"/>
+      <c r="F396" s="22"/>
+      <c r="G396" s="22"/>
+      <c r="H396" s="22"/>
+    </row>
+    <row r="397" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A397" s="20"/>
+      <c r="B397" s="33"/>
+      <c r="C397" s="22"/>
+      <c r="D397" s="22"/>
+      <c r="E397" s="22"/>
+      <c r="F397" s="22"/>
+      <c r="G397" s="22"/>
+      <c r="H397" s="22"/>
+    </row>
+    <row r="398" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A398" s="20"/>
+      <c r="B398" s="33"/>
+      <c r="C398" s="22"/>
+      <c r="D398" s="22"/>
+      <c r="E398" s="22"/>
+      <c r="F398" s="22"/>
+      <c r="G398" s="22"/>
+      <c r="H398" s="22"/>
+    </row>
+    <row r="399" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A399" s="20"/>
+      <c r="B399" s="33"/>
+      <c r="C399" s="22"/>
+      <c r="D399" s="22"/>
+      <c r="E399" s="22"/>
+      <c r="F399" s="22"/>
+      <c r="G399" s="22"/>
+      <c r="H399" s="22"/>
+    </row>
+    <row r="400" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A400" s="20"/>
+      <c r="B400" s="33"/>
+      <c r="C400" s="22"/>
+      <c r="D400" s="22"/>
+      <c r="E400" s="22"/>
+      <c r="F400" s="22"/>
+      <c r="G400" s="22"/>
+      <c r="H400" s="22"/>
+    </row>
+    <row r="401" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A401" s="20"/>
+      <c r="B401" s="33"/>
+      <c r="C401" s="22"/>
+      <c r="D401" s="22"/>
+      <c r="E401" s="22"/>
+      <c r="F401" s="22"/>
+      <c r="G401" s="22"/>
+      <c r="H401" s="22"/>
+    </row>
+    <row r="402" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A402" s="20"/>
+      <c r="B402" s="33"/>
+      <c r="C402" s="22"/>
+      <c r="D402" s="22"/>
+      <c r="E402" s="22"/>
+      <c r="F402" s="22"/>
+      <c r="G402" s="22"/>
+      <c r="H402" s="22"/>
+    </row>
+    <row r="403" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A403" s="20"/>
+      <c r="B403" s="33"/>
+      <c r="C403" s="22"/>
+      <c r="D403" s="22"/>
+      <c r="E403" s="22"/>
+      <c r="F403" s="22"/>
+      <c r="G403" s="22"/>
+      <c r="H403" s="22"/>
+    </row>
+    <row r="404" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A404" s="20"/>
+      <c r="B404" s="33"/>
+      <c r="C404" s="22"/>
+      <c r="D404" s="22"/>
+      <c r="E404" s="22"/>
+      <c r="F404" s="22"/>
+      <c r="G404" s="22"/>
+      <c r="H404" s="22"/>
+    </row>
+    <row r="405" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A405" s="20"/>
+      <c r="B405" s="33"/>
+      <c r="C405" s="22"/>
+      <c r="D405" s="22"/>
+      <c r="E405" s="22"/>
+      <c r="F405" s="22"/>
+      <c r="G405" s="22"/>
+      <c r="H405" s="22"/>
+    </row>
+    <row r="406" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A406" s="20"/>
+      <c r="B406" s="33"/>
+      <c r="C406" s="22"/>
+      <c r="D406" s="22"/>
+      <c r="E406" s="22"/>
+      <c r="F406" s="22"/>
+      <c r="G406" s="22"/>
+      <c r="H406" s="22"/>
+    </row>
+    <row r="407" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A407" s="20"/>
+      <c r="B407" s="33"/>
+      <c r="C407" s="22"/>
+      <c r="D407" s="22"/>
+      <c r="E407" s="22"/>
+      <c r="F407" s="22"/>
+      <c r="G407" s="22"/>
+      <c r="H407" s="22"/>
+    </row>
+    <row r="408" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A408" s="20"/>
+      <c r="B408" s="33"/>
+      <c r="C408" s="22"/>
+      <c r="D408" s="22"/>
+      <c r="E408" s="22"/>
+      <c r="F408" s="22"/>
+      <c r="G408" s="22"/>
+      <c r="H408" s="22"/>
+    </row>
+    <row r="409" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A409" s="20"/>
+      <c r="B409" s="33"/>
+      <c r="C409" s="22"/>
+      <c r="D409" s="22"/>
+      <c r="E409" s="22"/>
+      <c r="F409" s="22"/>
+      <c r="G409" s="22"/>
+      <c r="H409" s="22"/>
+    </row>
+    <row r="410" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A410" s="20"/>
+      <c r="B410" s="33"/>
+      <c r="C410" s="22"/>
+      <c r="D410" s="22"/>
+      <c r="E410" s="22"/>
+      <c r="F410" s="22"/>
+      <c r="G410" s="22"/>
+      <c r="H410" s="22"/>
+    </row>
+    <row r="411" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B411" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" s="22"/>
+      <c r="D411" s="22"/>
+      <c r="E411" s="22"/>
+      <c r="F411" s="22"/>
+      <c r="G411" s="22"/>
+      <c r="H411" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="B246:H246"/>
-    <mergeCell ref="C247:H247"/>
-    <mergeCell ref="C248:H248"/>
-    <mergeCell ref="C249:H249"/>
-    <mergeCell ref="C250:H250"/>
-    <mergeCell ref="C251:H251"/>
-    <mergeCell ref="C252:H252"/>
-    <mergeCell ref="C253:H253"/>
-    <mergeCell ref="C254:H254"/>
-    <mergeCell ref="C255:H255"/>
-    <mergeCell ref="A247:A254"/>
-    <mergeCell ref="B232:H232"/>
-    <mergeCell ref="A233:A241"/>
-    <mergeCell ref="C233:H233"/>
-    <mergeCell ref="C234:H234"/>
-    <mergeCell ref="C235:H235"/>
-    <mergeCell ref="C236:H236"/>
-    <mergeCell ref="C237:H237"/>
-    <mergeCell ref="C238:H238"/>
-    <mergeCell ref="C239:H239"/>
-    <mergeCell ref="C240:H240"/>
-    <mergeCell ref="C241:H241"/>
-    <mergeCell ref="B199:H199"/>
-    <mergeCell ref="C200:H200"/>
-    <mergeCell ref="C201:H201"/>
-    <mergeCell ref="C202:H202"/>
-    <mergeCell ref="C203:H203"/>
-    <mergeCell ref="C204:H204"/>
-    <mergeCell ref="C205:H205"/>
-    <mergeCell ref="C206:H206"/>
-    <mergeCell ref="C207:H222"/>
-    <mergeCell ref="A200:A221"/>
-    <mergeCell ref="B207:B221"/>
-    <mergeCell ref="C137:H197"/>
-    <mergeCell ref="B137:B165"/>
-    <mergeCell ref="B166:B197"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="A136:A165"/>
-    <mergeCell ref="A166:A197"/>
-    <mergeCell ref="B19:B45"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H45"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B11:H11"/>
+  <mergeCells count="149">
+    <mergeCell ref="B388:H388"/>
+    <mergeCell ref="A389:A410"/>
+    <mergeCell ref="C389:H389"/>
+    <mergeCell ref="C390:H390"/>
+    <mergeCell ref="C391:H391"/>
+    <mergeCell ref="C392:H392"/>
+    <mergeCell ref="C393:H393"/>
+    <mergeCell ref="C394:H394"/>
+    <mergeCell ref="C395:H395"/>
+    <mergeCell ref="B396:B410"/>
+    <mergeCell ref="C396:H411"/>
+    <mergeCell ref="B357:H357"/>
+    <mergeCell ref="A358:A379"/>
+    <mergeCell ref="C358:H358"/>
+    <mergeCell ref="C359:H359"/>
+    <mergeCell ref="C360:H360"/>
+    <mergeCell ref="C361:H361"/>
+    <mergeCell ref="C362:H362"/>
+    <mergeCell ref="C363:H363"/>
+    <mergeCell ref="C364:H364"/>
+    <mergeCell ref="B365:B379"/>
+    <mergeCell ref="C365:H380"/>
+    <mergeCell ref="B326:H326"/>
+    <mergeCell ref="A327:A348"/>
+    <mergeCell ref="C327:H327"/>
+    <mergeCell ref="C328:H328"/>
+    <mergeCell ref="C329:H329"/>
+    <mergeCell ref="C330:H330"/>
+    <mergeCell ref="C331:H331"/>
+    <mergeCell ref="C332:H332"/>
+    <mergeCell ref="C333:H333"/>
+    <mergeCell ref="B334:B348"/>
+    <mergeCell ref="C334:H349"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="B288:H288"/>
+    <mergeCell ref="C289:H289"/>
+    <mergeCell ref="C290:H290"/>
+    <mergeCell ref="C291:H291"/>
+    <mergeCell ref="C292:H292"/>
+    <mergeCell ref="C293:H293"/>
+    <mergeCell ref="C294:H294"/>
+    <mergeCell ref="C295:H295"/>
+    <mergeCell ref="C296:H311"/>
+    <mergeCell ref="B296:B310"/>
+    <mergeCell ref="A289:A310"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="B89:B104"/>
+    <mergeCell ref="C89:H128"/>
+    <mergeCell ref="B105:B128"/>
+    <mergeCell ref="A105:A128"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -4159,11 +5387,34 @@
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C54:H54"/>
     <mergeCell ref="C55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H45"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="A200:A221"/>
+    <mergeCell ref="B207:B221"/>
+    <mergeCell ref="C137:H197"/>
+    <mergeCell ref="B137:B165"/>
+    <mergeCell ref="B166:B197"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A165"/>
+    <mergeCell ref="A166:A197"/>
+    <mergeCell ref="B19:B45"/>
     <mergeCell ref="B81:H81"/>
     <mergeCell ref="B129:H129"/>
     <mergeCell ref="C88:H88"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="C57:H57"/>
     <mergeCell ref="C58:H58"/>
     <mergeCell ref="C59:H59"/>
     <mergeCell ref="C60:H60"/>
@@ -4176,18 +5427,37 @@
     <mergeCell ref="C84:H84"/>
     <mergeCell ref="C85:H85"/>
     <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="B89:B104"/>
-    <mergeCell ref="C89:H128"/>
-    <mergeCell ref="B105:B128"/>
-    <mergeCell ref="A105:A128"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="B199:H199"/>
+    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="C201:H201"/>
+    <mergeCell ref="C202:H202"/>
+    <mergeCell ref="C203:H203"/>
+    <mergeCell ref="C204:H204"/>
+    <mergeCell ref="C205:H205"/>
+    <mergeCell ref="C206:H206"/>
+    <mergeCell ref="C207:H222"/>
+    <mergeCell ref="C255:H255"/>
+    <mergeCell ref="A247:A254"/>
+    <mergeCell ref="B232:H232"/>
+    <mergeCell ref="A233:A241"/>
+    <mergeCell ref="C233:H233"/>
+    <mergeCell ref="C234:H234"/>
+    <mergeCell ref="C235:H235"/>
+    <mergeCell ref="C236:H236"/>
+    <mergeCell ref="C237:H237"/>
+    <mergeCell ref="C238:H238"/>
+    <mergeCell ref="C239:H239"/>
+    <mergeCell ref="C240:H240"/>
+    <mergeCell ref="C241:H241"/>
+    <mergeCell ref="B246:H246"/>
+    <mergeCell ref="C247:H247"/>
+    <mergeCell ref="C248:H248"/>
+    <mergeCell ref="C249:H249"/>
+    <mergeCell ref="C250:H250"/>
+    <mergeCell ref="C251:H251"/>
+    <mergeCell ref="C252:H252"/>
+    <mergeCell ref="C253:H253"/>
+    <mergeCell ref="C254:H254"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
